--- a/document/data source_課程資料/普高/skills_info/skills_info_數學3A.xlsx
+++ b/document/data source_課程資料/普高/skills_info/skills_info_數學3A.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\math-master\document\data source_課程資料\普高\skills_info\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32914" windowHeight="11083"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="補上這一冊的下半部 規則一樣 整合好一起輸出給我" sheetId="1" r:id="rId4"/>
+    <sheet name="補上這一冊的下半部 規則一樣 整合好一起輸出給我" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -61,9 +69,6 @@
     <t>text</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 180° = π 弳 (約 3.14)，1 弳約 57.3°。</t>
-  </si>
-  <si>
     <t>trig_arc_length</t>
   </si>
   <si>
@@ -76,9 +81,6 @@
     <t>熟練應用 s = rθ (θ 需為弧度) 計算扇形弧長。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生公式 s = rθ 中，圓心角 θ 必須使用「弧度 (弳)」為單位。</t>
-  </si>
-  <si>
     <t>trig_sector_area</t>
   </si>
   <si>
@@ -91,9 +93,6 @@
     <t>熟練應用 A = ½ r²θ = ½ rs (θ 需為弧度) 計算扇形面積。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生公式 A = ½ r²θ 中，圓心角 θ 必須使用「弧度 (弳)」為單位。</t>
-  </si>
-  <si>
     <t>trig_graph_sin</t>
   </si>
   <si>
@@ -109,9 +108,6 @@
     <t>handwriting</t>
   </si>
   <si>
-    <t>分析學生答案（圖形）：{user_answer}，正確答案（圖形）：{correct_answer}。如果錯誤，引導學生檢查 (0, 0), (π/2, 1), (π, 0), (3π/2, -1), (2π, 0) 等關鍵點。</t>
-  </si>
-  <si>
     <t>trig_graph_cos</t>
   </si>
   <si>
@@ -124,9 +120,6 @@
     <t>熟練描繪 y=cos(x) 的圖形，並理解其週期 (2π) 與振幅 (1)。</t>
   </si>
   <si>
-    <t>分析學生答案（圖形）：{user_answer}，正確答案（圖形）：{correct_answer}。如果錯誤，引導學生檢查 (0, 1), (π/2, 0), (π, -1), (3π/2, 0), (2π, 1) 等關鍵點。</t>
-  </si>
-  <si>
     <t>trig_graph_tan</t>
   </si>
   <si>
@@ -139,9 +132,6 @@
     <t>熟練描繪 y=tan(x) 的圖形，並理解其週期 (π) 與漸近線 (x = π/2 + nπ)。</t>
   </si>
   <si>
-    <t>分析學生答案（圖形）：{user_answer}，正確答案（圖形）：{correct_answer}。如果錯誤，引導學生檢查 (0, 0) 點，並確認在 x = ±π/2 處有垂直漸近線。</t>
-  </si>
-  <si>
     <t>trig_graph_properties</t>
   </si>
   <si>
@@ -154,9 +144,6 @@
     <t>熟練判讀 sin, cos, tan 圖形的定義域、值域、週期與振幅。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 y=sin(x) 和 y=cos(x) 週期 2π，y=tan(x) 週期 π。</t>
-  </si>
-  <si>
     <t>trig_graph_transform</t>
   </si>
   <si>
@@ -169,9 +156,6 @@
     <t>熟練分析 y = a sin(bx+c) + d 圖形的振幅、週期與位移。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，教導學生 y=a sin(bx+c)+d 的振幅為 |a|、週期為 2π/|b|、水平位移 -c/b、鉛直位移 d。</t>
-  </si>
-  <si>
     <t>trig_sum_diff_sin</t>
   </si>
   <si>
@@ -184,9 +168,6 @@
     <t>熟練應用 sin(α ± β) = sinα cosβ ± cosα sinβ。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 sin 的和差角公式 (sincos-cossin)，並檢查正負號是否一致。</t>
-  </si>
-  <si>
     <t>trig_sum_diff_cos</t>
   </si>
   <si>
@@ -199,9 +180,6 @@
     <t>熟練應用 cos(α ± β) = cosα cosβ ∓ sinα sinβ。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 cos 的和差角公式 (coscos-sinsin)，並檢查正負號是否 (±) 變 (∓)。</t>
-  </si>
-  <si>
     <t>trig_sum_diff_tan</t>
   </si>
   <si>
@@ -214,9 +192,6 @@
     <t>熟練應用 tan(α ± β) = (tanα ± tanβ) / (1 ∓ tanα tanβ)。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 tan 和差角公式，並檢查分子 (±) 與分母 (∓) 的正負號。</t>
-  </si>
-  <si>
     <t>trig_double_angle</t>
   </si>
   <si>
@@ -229,9 +204,6 @@
     <t>熟練應用 sin(2θ), cos(2θ) (三種形式), tan(2θ)。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 sin(2θ)=2sinθcosθ；cos(2θ)=cos²θ-sin²θ = 2cos²θ-1 = 1-2sin²θ。</t>
-  </si>
-  <si>
     <t>trig_half_angle</t>
   </si>
   <si>
@@ -244,9 +216,6 @@
     <t>熟練應用 sin(θ/2), cos(θ/2), tan(θ/2) 的半角公式（通常由 cos(θ) 導出）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 sin²(θ/2) = (1-cosθ)/2, cos²(θ/2) = (1+cosθ)/2，並注意正負號。</t>
-  </si>
-  <si>
     <t>trig_synthesis_r_sin</t>
   </si>
   <si>
@@ -259,9 +228,6 @@
     <t>熟練將 a sin(x) + b cos(x) 疊合為 r sin(x + φ) 的形式。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，教導學生提出 r = √(a²+b²)，並利用和角公式 (sin(x+φ)) 進行疊合。</t>
-  </si>
-  <si>
     <t>trig_synthesis_max_min</t>
   </si>
   <si>
@@ -274,9 +240,6 @@
     <t>熟練利用疊合 (r sin(x + φ)) 求解 a sin(x) + b cos(x) 的最大值 (r) 與最小值 (-r)。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 f(x) = a sin(x) + b cos(x) 的極值發生在 sin(x + φ) = ±1 時，最大值為 √(a²+b²)。</t>
-  </si>
-  <si>
     <t>exp_func_graph_a_gt_1</t>
   </si>
   <si>
@@ -292,9 +255,6 @@
     <t>熟練描繪 y = aˣ (a &gt; 1) 的圖形（嚴格遞增）。</t>
   </si>
   <si>
-    <t>分析學生答案（圖形）：{user_answer}，正確答案（圖形）：{correct_answer}。如果錯誤，提醒學生圖形必過 (0, 1) 和 (1, a)，且以 x 軸為漸近線的「嚴格遞增」圖形。</t>
-  </si>
-  <si>
     <t>exp_func_graph_a_lt_1</t>
   </si>
   <si>
@@ -307,9 +267,6 @@
     <t>熟練描繪 y = aˣ (0 &lt; a &lt; 1) 的圖形（嚴格遞減）。</t>
   </si>
   <si>
-    <t>分析學生答案（圖形）：{user_answer}，正確答案（圖形）：{correct_answer}。如果錯誤，提醒學生圖形必過 (0, 1) 和 (1, a)，且以 x 軸為漸近線的「嚴格遞減」圖形。</t>
-  </si>
-  <si>
     <t>exp_func_properties</t>
   </si>
   <si>
@@ -322,9 +279,6 @@
     <t>熟練掌握 y = aˣ 的定義域 (R)、值域 (y &gt; 0) 與漸近線 (y=0)。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 aˣ 恆正 (值域 y &gt; 0)，且 y = aˣ 與 y = (1/a)ˣ 的圖形對稱於 y 軸。</t>
-  </si>
-  <si>
     <t>exp_func_transform</t>
   </si>
   <si>
@@ -337,9 +291,6 @@
     <t>熟練繪製 y = a^(x-h) + k 的圖形（平移）。</t>
   </si>
   <si>
-    <t>分析學生答案（圖形）：{user_answer}，正確答案（圖形）：{correct_answer}。如果錯誤，引導學生先畫 y = aˣ，再將圖形向右平移 h、向上平移 k，並注意漸近線移至 y = k。</t>
-  </si>
-  <si>
     <t>exp_func_solve_eq</t>
   </si>
   <si>
@@ -352,9 +303,6 @@
     <t>熟練求解指數方程式（化為同底數 a^f(x) = a^g(x) ⇒ f(x) = g(x)）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，引導學生將兩邊化為「相同底數」，再讓「指數相等」。</t>
-  </si>
-  <si>
     <t>exp_func_solve_ineq</t>
   </si>
   <si>
@@ -367,9 +315,6 @@
     <t>熟練求解指數不等式 a^f(x) &gt; a^g(x)，並注意底數 a 的範圍。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生：若底數 a &gt; 1，則 f(x) &gt; g(x) (同向)；若 0 &lt; a &lt; 1，則 f(x) &lt; g(x) (反向)。</t>
-  </si>
-  <si>
     <t>exp_func_compare</t>
   </si>
   <si>
@@ -382,9 +327,6 @@
     <t>熟練比較指數的大小（利用化同底、化同指數或 y=a^x 圖形）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。教導學生利用 y=a^x (a&gt;1) 遞增的性質，或 y=a^x (0&lt;a&lt;1) 遞減的性質來比較大小。</t>
-  </si>
-  <si>
     <t>log_properties_basic</t>
   </si>
   <si>
@@ -397,9 +339,6 @@
     <t>熟練應用對數律：log(AB), log(A/B), log(Aⁿ)。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 log(A)+log(B)=log(AB)，log(A)-log(B)=log(A/B)，n log(A)=log(Aⁿ)。</t>
-  </si>
-  <si>
     <t>log_change_of_base</t>
   </si>
   <si>
@@ -412,9 +351,6 @@
     <t>熟練應用換底公式：log_a(b) = log_c(b) / log_c(a)。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 log_a(b) = log(b) / log(a)，並注意 log_a(b) · log_b(a) = 1。</t>
-  </si>
-  <si>
     <t>log_natural_definition</t>
   </si>
   <si>
@@ -427,9 +363,6 @@
     <t>認識自然對數 (ln) 是以 e (≈2.718) 為底的對數。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 ln(x) = log_e(x)。</t>
-  </si>
-  <si>
     <t>log_func_graph_a_gt_1</t>
   </si>
   <si>
@@ -442,9 +375,6 @@
     <t>熟練描繪 y = logₐ(x) (a &gt; 1) 的圖形（嚴格遞增）。</t>
   </si>
   <si>
-    <t>分析學生答案（圖形）：{user_answer}，正確答案（圖形）：{correct_answer}。如果錯誤，提醒學生圖形必過 (1, 0) 和 (a, 1)，且以 y 軸為漸近線的「嚴格遞增」圖形。</t>
-  </si>
-  <si>
     <t>log_func_graph_a_lt_1</t>
   </si>
   <si>
@@ -457,9 +387,6 @@
     <t>熟練描繪 y = logₐ(x) (0 &lt; a &lt; 1) 的圖形（嚴格遞減）。</t>
   </si>
   <si>
-    <t>分析學生答案（圖形）：{user_answer}，正確答案（圖形）：{correct_answer}。如果錯誤，提醒學生圖形必過 (1, 0) 和 (a, 1)，且以 y 軸為漸近線的「嚴格遞減」圖形。</t>
-  </si>
-  <si>
     <t>log_func_properties</t>
   </si>
   <si>
@@ -472,9 +399,6 @@
     <t>熟練掌握 y = logₐ(x) 的定義域 (x &gt; 0)、值域 (R) 與漸近線 (x=0)。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「真數恆正」(x &gt; 0)，且 y = logₐ(x) 與 y = log_1/a(x) 的圖形對稱於 x 軸。</t>
-  </si>
-  <si>
     <t>exp_log_inverse_relation</t>
   </si>
   <si>
@@ -487,9 +411,6 @@
     <t>理解 y = aˣ 與 y = logₐ(x) 互為反函數，圖形對稱於直線 y = x。</t>
   </si>
   <si>
-    <t>分析學生答案（圖形或判斷）：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 (b, a) 在 y=logₐ(x) 上 ⇔ (a, b) 在 y=aˣ 上。</t>
-  </si>
-  <si>
     <t>log_func_transform</t>
   </si>
   <si>
@@ -502,9 +423,6 @@
     <t>熟練繪製 y = logₐ(x-h) + k 的圖形（平移）。</t>
   </si>
   <si>
-    <t>分析學生答案（圖形）：{user_answer}，正確答案（圖形）：{correct_answer}。如果錯誤，引導學生先畫 y=logₐ(x)，再平移，並注意漸近線移至 x = h。</t>
-  </si>
-  <si>
     <t>log_func_solve_eq</t>
   </si>
   <si>
@@ -517,9 +435,6 @@
     <t>熟練求解對數方程式（化為 logₐf(x) = logₐg(x) ⇒ f(x) = g(x)）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生解完 x 後，必須代回原式檢查「真數 &gt; 0」。</t>
-  </si>
-  <si>
     <t>log_func_solve_ineq</t>
   </si>
   <si>
@@ -532,9 +447,6 @@
     <t>熟練求解對數不等式 logₐf(x) &gt; logₐg(x)，並注意底數 a 與真數範圍。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生：1. 先滿足 f(x)&gt;0 且 g(x)&gt;0。 2. 若 a&gt;1, f(x)&gt;g(x) (同向)；若 0&lt;a&lt;1, f(x)&lt;g(x) (反向)。 3. 取 1 和 2 的交集。</t>
-  </si>
-  <si>
     <t>log_func_compare</t>
   </si>
   <si>
@@ -547,9 +459,6 @@
     <t>熟練比較對數的大小（利用化同底或 y=logₐx 圖形）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。教導學生利用 y=logₐx (a&gt;1) 遞增的性質，或 y=logₐx (0&lt;a&lt;1) 遞減的性質來比較大小。</t>
-  </si>
-  <si>
     <t>vector_definition_coordinate</t>
   </si>
   <si>
@@ -565,9 +474,6 @@
     <t>熟練向量 (AB) 的坐標表示法 (B點 - A點)。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生向量 AB = (x₂-x₁, y₂-y₁)。</t>
-  </si>
-  <si>
     <t>vector_equality</t>
   </si>
   <si>
@@ -580,9 +486,6 @@
     <t>熟練判斷兩向量相等（大小相等且方向相同，或 x, y 分量分別相等）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 (a, b) = (c, d) ⇔ a=c 且 b=d。</t>
-  </si>
-  <si>
     <t>vector_ops_add_sub</t>
   </si>
   <si>
@@ -595,9 +498,6 @@
     <t>熟練向量加法 (平行四邊形/三角形法則) 與減法 (a - b = a + (-b))。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 (a, b) + (c, d) = (a+c, b+d)。</t>
-  </si>
-  <si>
     <t>vector_ops_scalar_multiply</t>
   </si>
   <si>
@@ -610,9 +510,6 @@
     <t>熟練向量係數積 c(a, b) = (ca, cb) 及其幾何意義（伸縮）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 c &gt; 0 同向，c &lt; 0 反向，長度變為 |c| 倍。</t>
-  </si>
-  <si>
     <t>vector_magnitude_calc</t>
   </si>
   <si>
@@ -625,9 +522,6 @@
     <t>熟練計算向量 v=(a, b) 的大小 |v| = √(a²+b²)。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生長度公式為 √(x分量² + y分量²)。</t>
-  </si>
-  <si>
     <t>vector_parallel_condition</t>
   </si>
   <si>
@@ -640,9 +534,6 @@
     <t>熟練判斷兩向量 a, b 平行的條件 (b = k a)。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 a // b ⇔ 存在實數 k 使 b = k a，或 ad - bc = 0 (若 a=(a,b), b=(c,d))。</t>
-  </si>
-  <si>
     <t>vector_linear_combination</t>
   </si>
   <si>
@@ -655,9 +546,6 @@
     <t>熟練將向量 w 表示為兩不平行向量 u, v 的線性組合 (w = x u + y v)。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，引導學生使用分量法解 x, y 的聯立方程式。</t>
-  </si>
-  <si>
     <t>vector_section_formula</t>
   </si>
   <si>
@@ -670,9 +558,6 @@
     <t>熟練應用向量分點公式 (P = mB + nA / m+n)。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 P 在 AB 上且 AP:PB = m:n 時，OP = (n OA + m OB) / (m+n)。</t>
-  </si>
-  <si>
     <t>vector_dot_product_geometric</t>
   </si>
   <si>
@@ -685,9 +570,6 @@
     <t>熟練應用內積定義 a·b = |a||b|cosθ。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 θ 是兩向量的夾角，並檢查 cosθ 的正負號。</t>
-  </si>
-  <si>
     <t>vector_dot_product_algebraic</t>
   </si>
   <si>
@@ -700,9 +582,6 @@
     <t>熟練計算坐標表示的內積 a·b = x₁x₂ + y₁y₂。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 (x₁, y₁)·(x₂, y₂) = x₁x₂ + y₁y₂。</t>
-  </si>
-  <si>
     <t>vector_dot_product_properties</t>
   </si>
   <si>
@@ -715,9 +594,6 @@
     <t>熟練應用內積的分配律、交換律，並理解 a·a = |a|²。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 (a+b)·c = a·c + b·c，且 |a+b|² = |a|² + 2(a·b) + |b|²。</t>
-  </si>
-  <si>
     <t>vector_angle_between</t>
   </si>
   <si>
@@ -730,9 +606,6 @@
     <t>熟練利用內積求兩向量夾角：cosθ = (a·b) / (|a||b|)。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，引導學生使用 cosθ = (x₁x₂ + y₁y₂) / (√(x₁²+y₁²) √(x₂²+y₂²))。</t>
-  </si>
-  <si>
     <t>vector_orthogonality_check</t>
   </si>
   <si>
@@ -745,9 +618,6 @@
     <t>熟練判斷兩非零向量垂直 ⇔ a·b = 0。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生兩向量垂直(正交)的充要條件是其內積為 0。</t>
-  </si>
-  <si>
     <t>vector_projection</t>
   </si>
   <si>
@@ -760,9 +630,6 @@
     <t>熟練計算 a 在 b 上的正射影向量。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 a 在 b 上的正射影公式為 (a⋅b)/∥b∥ b。</t>
-  </si>
-  <si>
     <t>cauchy_schwarz_inequality</t>
   </si>
   <si>
@@ -775,9 +642,6 @@
     <t>熟練應用柯西不等式：(a·b)² ≤ |a|²|b|² 或 (x₁y₁ + x₂y₂)² ≤ (x₁²+x₂²)(y₁²+y₂²)。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，教導學生 (x₁²+x₂²)(y₁²+y₂²) ≥ (x₁y₁ + x₂y₂)²，並注意等號成立時機 (向量平行)。</t>
-  </si>
-  <si>
     <t>vector_triangle_inequality</t>
   </si>
   <si>
@@ -790,9 +654,6 @@
     <t>理解三角不等式 |a+b| ≤ |a| + |b|。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「兩邊之和大於第三邊」在向量上的意義。</t>
-  </si>
-  <si>
     <t>determinant_2x2_calc</t>
   </si>
   <si>
@@ -808,9 +669,6 @@
     <t>熟練計算二階行列式 det(a, b; c, d) = ad - bc。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生行列式值 = (左上·右下) - (右上·左下)。</t>
-  </si>
-  <si>
     <t>cramers_rule_2x2</t>
   </si>
   <si>
@@ -823,9 +681,6 @@
     <t>熟練應用克拉瑪公式解二元一次聯立方程式 (x = Δx / Δ)。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，引導學生檢查 Δ, Δx, Δy 的行列式是否正確計算。</t>
-  </si>
-  <si>
     <t>system_linear_2x2_geometry</t>
   </si>
   <si>
@@ -838,9 +693,6 @@
     <t>熟練使用 Δ, Δx, Δy 判斷聯立方程式解的幾何意義（相交、平行、重合）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生：Δ≠0 (洽一解/相交)；Δ=0 且 Δx=Δy=0 (無限解/重合)；Δ=0 且 Δx, Δy 不全為0 (無解/平行)。</t>
-  </si>
-  <si>
     <t>determinant_area_formula</t>
   </si>
   <si>
@@ -853,23 +705,513 @@
     <t>熟練應用行列式計算由兩向量 (a,b), (c,d) 張出的平行四邊形面積 (|ad-bc|)。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生平行四邊形面積 = |det(u, v)|，三角形面積 = ½ |det(u, v)|。</t>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 180° = π 弳 (約 3.14)，1 弳約 57.3°。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生公式 s = rθ 中，圓心角 θ 必須使用「弧度 (弳)」為單位。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生公式 A = ½ r²θ 中，圓心角 θ 必須使用「弧度 (弳)」為單位。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生檢查 (0, 0), (π/2, 1), (π, 0), (3π/2, -1), (2π, 0) 等關鍵點。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生檢查 (0, 1), (π/2, 0), (π, -1), (3π/2, 0), (2π, 1) 等關鍵點。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生檢查 (0, 0) 點，並確認在 x = ±π/2 處有垂直漸近線。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 y=sin(x) 和 y=cos(x) 週期 2π，y=tan(x) 週期 π。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，教導學生 y=a sin(bx+c)+d 的振幅為 |a|、週期為 2π/|b|、水平位移 -c/b、鉛直位移 d。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 sin 的和差角公式 (sincos-cossin)，並檢查正負號是否一致。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 cos 的和差角公式 (coscos-sinsin)，並檢查正負號是否 (±) 變 (∓)。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 tan 和差角公式，並檢查分子 (±) 與分母 (∓) 的正負號。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 sin(2θ)=2sinθcosθ；cos(2θ)=cos²θ-sin²θ = 2cos²θ-1 = 1-2sin²θ。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 sin²(θ/2) = (1-cosθ)/2, cos²(θ/2) = (1+cosθ)/2，並注意正負號。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，教導學生提出 r = √(a²+b²)，並利用和角公式 (sin(x+φ)) 進行疊合。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 f(x) = a sin(x) + b cos(x) 的極值發生在 sin(x + φ) = ±1 時，最大值為 √(a²+b²)。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生圖形必過 (0, 1) 和 (1, a)，且以 x 軸為漸近線的「嚴格遞增」圖形。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生圖形必過 (0, 1) 和 (1, a)，且以 x 軸為漸近線的「嚴格遞減」圖形。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 aˣ 恆正 (值域 y &gt; 0)，且 y = aˣ 與 y = (1/a)ˣ 的圖形對稱於 y 軸。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生先畫 y = aˣ，再將圖形向右平移 h、向上平移 k，並注意漸近線移至 y = k。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生將兩邊化為「相同底數」，再讓「指數相等」。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生：若底數 a &gt; 1，則 f(x) &gt; g(x) (同向)；若 0 &lt; a &lt; 1，則 f(x) &lt; g(x) (反向)。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]教導學生利用 y=a^x (a&gt;1) 遞增的性質，或 y=a^x (0&lt;a&lt;1) 遞減的性質來比較大小。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 log(A)+log(B)=log(AB)，log(A)-log(B)=log(A/B)，n log(A)=log(Aⁿ)。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 log_a(b) = log(b) / log(a)，並注意 log_a(b) · log_b(a) = 1。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 ln(x) = log_e(x)。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生圖形必過 (1, 0) 和 (a, 1)，且以 y 軸為漸近線的「嚴格遞增」圖形。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生圖形必過 (1, 0) 和 (a, 1)，且以 y 軸為漸近線的「嚴格遞減」圖形。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「真數恆正」(x &gt; 0)，且 y = logₐ(x) 與 y = log_1/a(x) 的圖形對稱於 x 軸。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]果錯誤，提醒學生 (b, a) 在 y=logₐ(x) 上 ⇔ (a, b) 在 y=aˣ 上。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生先畫 y=logₐ(x)，再平移，並注意漸近線移至 x = h。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生解完 x 後，必須代回原式檢查「真數 &gt; 0」。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生：1. 先滿足 f(x)&gt;0 且 g(x)&gt;0。 2. 若 a&gt;1, f(x)&gt;g(x) (同向)；若 0&lt;a&lt;1, f(x)&lt;g(x) (反向)。 3. 取 1 和 2 的交集。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]教導學生利用 y=logₐx (a&gt;1) 遞增的性質，或 y=logₐx (0&lt;a&lt;1) 遞減的性質來比較大小。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生向量 AB = (x₂-x₁, y₂-y₁)。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 (a, b) = (c, d) ⇔ a=c 且 b=d。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 (a, b) + (c, d) = (a+c, b+d)。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 c &gt; 0 同向，c &lt; 0 反向，長度變為 |c| 倍。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生長度公式為 √(x分量² + y分量²)。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 a // b ⇔ 存在實數 k 使 b = k a，或 ad - bc = 0 (若 a=(a,b), b=(c,d))。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生使用分量法解 x, y 的聯立方程式。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 P 在 AB 上且 AP:PB = m:n 時，OP = (n OA + m OB) / (m+n)。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 θ 是兩向量的夾角，並檢查 cosθ 的正負號。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 (x₁, y₁)·(x₂, y₂) = x₁x₂ + y₁y₂。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 (a+b)·c = a·c + b·c，且 |a+b|² = |a|² + 2(a·b) + |b|²。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生使用 cosθ = (x₁x₂ + y₁y₂) / (√(x₁²+y₁²) √(x₂²+y₂²))。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生兩向量垂直(正交)的充要條件是其內積為 0。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 a 在 b 上的正射影公式為 (a⋅b)/∥b∥ b。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，教導學生 (x₁²+x₂²)(y₁²+y₂²) ≥ (x₁y₁ + x₂y₂)²，並注意等號成立時機 (向量平行)。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「兩邊之和大於第三邊」在向量上的意義。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生行列式值 = (左上·右下) - (右上·左下)。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生檢查 Δ, Δx, Δy 的行列式是否正確計算。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生：Δ≠0 (洽一解/相交)；Δ=0 且 Δx=Δy=0 (無限解/重合)；Δ=0 且 Δx, Δy 不全為0 (無解/平行)。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生平行四邊形面積 = |det(u, v)|，三角形面積 = ½ |det(u, v)|。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -878,36 +1220,46 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1097,20 +1449,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:Q1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.61328125" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1142,7 +1499,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1162,1665 +1519,1717 @@
         <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H2" s="1">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1380</v>
+      </c>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1380.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H3" s="1">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1390</v>
+      </c>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1390.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H4" s="1">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1400</v>
+      </c>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="H4" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1400.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H5" s="1">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1410</v>
+      </c>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1410.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>37</v>
+        <v>232</v>
       </c>
       <c r="H6" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I6" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J6" s="1">
-        <v>1420.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>1420</v>
+      </c>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>42</v>
+        <v>233</v>
       </c>
       <c r="H7" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J7" s="1">
-        <v>1430.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>1430</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>47</v>
+        <v>234</v>
       </c>
       <c r="H8" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I8" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J8" s="1">
-        <v>1440.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>1440</v>
+      </c>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>52</v>
+        <v>235</v>
       </c>
       <c r="H9" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I9" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J9" s="1">
-        <v>1450.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>1450</v>
+      </c>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>57</v>
+        <v>236</v>
       </c>
       <c r="H10" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I10" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J10" s="1">
-        <v>1460.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>1460</v>
+      </c>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>62</v>
+        <v>237</v>
       </c>
       <c r="H11" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I11" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J11" s="1">
-        <v>1470.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>1470</v>
+      </c>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>67</v>
+        <v>238</v>
       </c>
       <c r="H12" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I12" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J12" s="1">
-        <v>1480.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>1480</v>
+      </c>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>72</v>
+        <v>239</v>
       </c>
       <c r="H13" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I13" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J13" s="1">
-        <v>1490.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>1490</v>
+      </c>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>77</v>
+        <v>240</v>
       </c>
       <c r="H14" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I14" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J14" s="1">
-        <v>1500.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>1500</v>
+      </c>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>82</v>
+        <v>241</v>
       </c>
       <c r="H15" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I15" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J15" s="1">
-        <v>1510.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>1510</v>
+      </c>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H16" s="1">
+        <v>5</v>
+      </c>
+      <c r="I16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1520</v>
+      </c>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H17" s="1">
+        <v>5</v>
+      </c>
+      <c r="I17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1530</v>
+      </c>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H18" s="1">
+        <v>5</v>
+      </c>
+      <c r="I18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1540</v>
+      </c>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H19" s="1">
+        <v>5</v>
+      </c>
+      <c r="I19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1550</v>
+      </c>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H16" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1">
-        <v>1520.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="D20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="F20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H20" s="1">
+        <v>5</v>
+      </c>
+      <c r="I20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1560</v>
+      </c>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="D21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H17" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1">
-        <v>1530.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="F21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H21" s="1">
+        <v>5</v>
+      </c>
+      <c r="I21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1570</v>
+      </c>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="D22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="F22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H22" s="1">
+        <v>5</v>
+      </c>
+      <c r="I22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1580</v>
+      </c>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H18" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" s="1">
-        <v>1540.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="F23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H23" s="1">
+        <v>5</v>
+      </c>
+      <c r="I23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1590</v>
+      </c>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H19" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1">
-        <v>1550.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="D24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="F24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H24" s="1">
+        <v>5</v>
+      </c>
+      <c r="I24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1600</v>
+      </c>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H20" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1">
-        <v>1560.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="D25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="F25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H25" s="1">
+        <v>5</v>
+      </c>
+      <c r="I25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1610</v>
+      </c>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="D26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H21" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I21" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" s="1">
-        <v>1570.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="F26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H26" s="1">
+        <v>5</v>
+      </c>
+      <c r="I26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1620</v>
+      </c>
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="D27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="1" t="s">
+      <c r="F27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H27" s="1">
+        <v>5</v>
+      </c>
+      <c r="I27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1630</v>
+      </c>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H22" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I22" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" s="1">
-        <v>1580.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="F28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H28" s="1">
+        <v>5</v>
+      </c>
+      <c r="I28" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1640</v>
+      </c>
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H23" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I23" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" s="1">
-        <v>1590.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="D29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="F29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="H29" s="1">
+        <v>5</v>
+      </c>
+      <c r="I29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1650</v>
+      </c>
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H24" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" s="1">
-        <v>1600.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="D30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="F30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H30" s="1">
+        <v>5</v>
+      </c>
+      <c r="I30" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1660</v>
+      </c>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="1" t="s">
+      <c r="D31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H25" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I25" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J25" s="1">
-        <v>1610.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="F31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="H31" s="1">
+        <v>5</v>
+      </c>
+      <c r="I31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1670</v>
+      </c>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" s="1" t="s">
+      <c r="D32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="1" t="s">
+      <c r="F32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="H32" s="1">
+        <v>5</v>
+      </c>
+      <c r="I32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1680</v>
+      </c>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="H26" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I26" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" s="1">
-        <v>1620.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" s="1" t="s">
+      <c r="F33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H33" s="1">
+        <v>5</v>
+      </c>
+      <c r="I33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1690</v>
+      </c>
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="H27" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J27" s="1">
-        <v>1630.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="D34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="F34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H34" s="1">
+        <v>5</v>
+      </c>
+      <c r="I34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1700</v>
+      </c>
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E28" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="H28" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I28" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J28" s="1">
-        <v>1640.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="F35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="H35" s="1">
+        <v>5</v>
+      </c>
+      <c r="I35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1710</v>
+      </c>
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E29" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="H29" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I29" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J29" s="1">
-        <v>1650.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="s">
+      <c r="D36" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="F36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H36" s="1">
+        <v>5</v>
+      </c>
+      <c r="I36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" s="1">
+        <v>1720</v>
+      </c>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E30" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G30" s="1" t="s">
+      <c r="D37" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="H30" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I30" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J30" s="1">
-        <v>1660.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="F37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H37" s="1">
+        <v>5</v>
+      </c>
+      <c r="I37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37" s="1">
+        <v>1730</v>
+      </c>
+      <c r="M37" s="2"/>
+    </row>
+    <row r="38" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E31" s="1" t="s">
+      <c r="D38" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G31" s="1" t="s">
+      <c r="F38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="H38" s="1">
+        <v>5</v>
+      </c>
+      <c r="I38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" s="1">
+        <v>1740</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="H31" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I31" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J31" s="1">
-        <v>1670.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D39" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E32" s="1" t="s">
+      <c r="F39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H39" s="1">
+        <v>5</v>
+      </c>
+      <c r="I39" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" s="1">
+        <v>1750</v>
+      </c>
+      <c r="M39" s="2"/>
+    </row>
+    <row r="40" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H32" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I32" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J32" s="1">
-        <v>1680.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="D40" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="F40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H40" s="1">
+        <v>5</v>
+      </c>
+      <c r="I40" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" s="1">
+        <v>1760</v>
+      </c>
+      <c r="M40" s="2"/>
+    </row>
+    <row r="41" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E33" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="H33" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I33" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J33" s="1">
-        <v>1690.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="s">
+      <c r="D41" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="F41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="H41" s="1">
+        <v>5</v>
+      </c>
+      <c r="I41" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" s="1">
+        <v>1770</v>
+      </c>
+      <c r="M41" s="2"/>
+    </row>
+    <row r="42" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E34" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="1" t="s">
+      <c r="D42" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="H34" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I34" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J34" s="1">
-        <v>1700.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="s">
+      <c r="F42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H42" s="1">
+        <v>5</v>
+      </c>
+      <c r="I42" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42" s="1">
+        <v>1780</v>
+      </c>
+      <c r="M42" s="2"/>
+    </row>
+    <row r="43" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D43" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="F43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H43" s="1">
+        <v>5</v>
+      </c>
+      <c r="I43" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" s="1">
+        <v>1790</v>
+      </c>
+      <c r="M43" s="2"/>
+    </row>
+    <row r="44" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="H35" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I35" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J35" s="1">
-        <v>1710.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="D44" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="F44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H44" s="1">
+        <v>5</v>
+      </c>
+      <c r="I44" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" s="1">
+        <v>1800</v>
+      </c>
+      <c r="M44" s="2"/>
+    </row>
+    <row r="45" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E36" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="H36" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I36" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J36" s="1">
-        <v>1720.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="s">
+      <c r="D45" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="F45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="H45" s="1">
+        <v>5</v>
+      </c>
+      <c r="I45" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" s="1">
+        <v>1810</v>
+      </c>
+      <c r="M45" s="2"/>
+    </row>
+    <row r="46" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E37" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="1" t="s">
+      <c r="D46" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="H37" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I37" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J37" s="1">
-        <v>1730.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="s">
+      <c r="F46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="H46" s="1">
+        <v>5</v>
+      </c>
+      <c r="I46" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46" s="1">
+        <v>1820</v>
+      </c>
+      <c r="M46" s="2"/>
+    </row>
+    <row r="47" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E38" s="1" t="s">
+      <c r="D47" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" s="1" t="s">
+      <c r="F47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="H47" s="1">
+        <v>5</v>
+      </c>
+      <c r="I47" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J47" s="1">
+        <v>1830</v>
+      </c>
+      <c r="M47" s="2"/>
+    </row>
+    <row r="48" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="H38" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I38" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J38" s="1">
-        <v>1740.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D48" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E39" s="1" t="s">
+      <c r="F48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H48" s="1">
+        <v>5</v>
+      </c>
+      <c r="I48" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" s="1">
+        <v>1840</v>
+      </c>
+      <c r="M48" s="2"/>
+    </row>
+    <row r="49" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H39" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I39" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J39" s="1">
-        <v>1750.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="D49" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="F49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H49" s="1">
+        <v>5</v>
+      </c>
+      <c r="I49" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" s="1">
+        <v>1850</v>
+      </c>
+      <c r="M49" s="2"/>
+    </row>
+    <row r="50" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E40" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="H40" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I40" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J40" s="1">
-        <v>1760.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="s">
+      <c r="D50" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="F50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H50" s="1">
+        <v>5</v>
+      </c>
+      <c r="I50" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" s="1">
+        <v>1860</v>
+      </c>
+      <c r="M50" s="2"/>
+    </row>
+    <row r="51" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E41" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="H41" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I41" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J41" s="1">
-        <v>1770.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="F51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="H51" s="1">
+        <v>5</v>
+      </c>
+      <c r="I51" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" s="1">
+        <v>1870</v>
+      </c>
+      <c r="M51" s="2"/>
+    </row>
+    <row r="52" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E42" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" s="1" t="s">
+      <c r="D52" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="H42" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I42" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J42" s="1">
-        <v>1780.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="s">
+      <c r="F52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H52" s="1">
+        <v>5</v>
+      </c>
+      <c r="I52" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" s="1">
+        <v>1880</v>
+      </c>
+      <c r="M52" s="2"/>
+    </row>
+    <row r="53" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E43" s="1" t="s">
+      <c r="D53" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" s="1" t="s">
+      <c r="F53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="H53" s="1">
+        <v>5</v>
+      </c>
+      <c r="I53" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53" s="1">
+        <v>1890</v>
+      </c>
+      <c r="M53" s="2"/>
+    </row>
+    <row r="54" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="H43" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I43" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J43" s="1">
-        <v>1790.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D54" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="H44" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I44" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J44" s="1">
-        <v>1800.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="H45" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I45" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J45" s="1">
-        <v>1810.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="H46" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I46" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J46" s="1">
-        <v>1820.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="H47" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I47" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J47" s="1">
-        <v>1830.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="H48" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I48" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" s="1">
-        <v>1840.0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H49" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I49" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J49" s="1">
-        <v>1850.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="H50" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I50" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J50" s="1">
-        <v>1860.0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="H51" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I51" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" s="1">
-        <v>1870.0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="H52" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I52" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J52" s="1">
-        <v>1880.0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="H53" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I53" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J53" s="1">
-        <v>1890.0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>279</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>15</v>
@@ -2829,16 +3238,18 @@
         <v>280</v>
       </c>
       <c r="H54" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I54" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J54" s="1">
-        <v>1900.0</v>
-      </c>
+        <v>1900</v>
+      </c>
+      <c r="M54" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>